--- a/Task 19/solution_3191.xlsx
+++ b/Task 19/solution_3191.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Django\2022\preparation_for_the_EGE\Task 19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F4D6BA-1733-4AC2-B369-A99A26FAFAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908EEF1C-8574-402E-9322-887206EE0A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>Петя</t>
   </si>
@@ -91,21 +91,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -173,6 +159,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -466,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L23"/>
+  <dimension ref="B1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:L8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +771,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F17">
         <f>D16</f>
         <v>28</v>
@@ -796,7 +789,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F18">
         <f>D16*4</f>
         <v>112</v>
@@ -814,7 +807,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F19">
         <f>D16</f>
         <v>28</v>
@@ -832,7 +825,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D20">
         <f>B8</f>
         <v>7</v>
@@ -858,7 +851,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F21">
         <f>D20</f>
         <v>7</v>
@@ -876,7 +869,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F22">
         <f>D20*4</f>
         <v>28</v>
@@ -894,7 +887,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F23">
         <f>D20</f>
         <v>7</v>
@@ -912,27 +905,1475 @@
         <v>503</v>
       </c>
     </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <f>B27+1</f>
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <f>C27</f>
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <f>D27+1</f>
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <f>E27</f>
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <f>F27+1</f>
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <f>G27</f>
+        <v>30</v>
+      </c>
+      <c r="J27">
+        <f>MAX(H27:I27)*4+MIN(H27:I27)</f>
+        <v>130</v>
+      </c>
+      <c r="K27">
+        <f>H27+I27</f>
+        <v>40</v>
+      </c>
+      <c r="M27" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f>F27+G27</f>
+        <v>39</v>
+      </c>
+      <c r="H28">
+        <f>F27</f>
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <f>G27+1</f>
+        <v>31</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28:J42" si="3">MAX(H28:I28)*4+MIN(H28:I28)</f>
+        <v>133</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ref="K28:K42" si="4">H28+I28</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f>F27*4</f>
+        <v>36</v>
+      </c>
+      <c r="I29">
+        <f>G27</f>
+        <v>30</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f>F27</f>
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <f>G27*4</f>
+        <v>120</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>489</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f>D27</f>
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <f>E27+1</f>
+        <v>31</v>
+      </c>
+      <c r="H31">
+        <f>F31+1</f>
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <f>G31</f>
+        <v>31</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f>F31+G31</f>
+        <v>39</v>
+      </c>
+      <c r="H32">
+        <f>F31</f>
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <f>G31+1</f>
+        <v>32</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f>F31*4</f>
+        <v>32</v>
+      </c>
+      <c r="I33">
+        <f>G31</f>
+        <v>31</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f>F31</f>
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <f>G31*4</f>
+        <v>124</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>504</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f>D27*4</f>
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <f>E27</f>
+        <v>30</v>
+      </c>
+      <c r="H35">
+        <f>F35+1</f>
+        <v>33</v>
+      </c>
+      <c r="I35">
+        <f>G35</f>
+        <v>30</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f>F35+G35</f>
+        <v>62</v>
+      </c>
+      <c r="H36">
+        <f>F35</f>
+        <v>32</v>
+      </c>
+      <c r="I36">
+        <f>G35+1</f>
+        <v>31</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f>F35*4</f>
+        <v>128</v>
+      </c>
+      <c r="I37">
+        <f>G35</f>
+        <v>30</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>542</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f>F35</f>
+        <v>32</v>
+      </c>
+      <c r="I38">
+        <f>G35*4</f>
+        <v>120</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>512</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f>D27</f>
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <f>E27*4</f>
+        <v>120</v>
+      </c>
+      <c r="H39">
+        <f>F39+1</f>
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <f>G39</f>
+        <v>120</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>489</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f>F39+G39</f>
+        <v>128</v>
+      </c>
+      <c r="H40">
+        <f>F39</f>
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <f>G39+1</f>
+        <v>121</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>492</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f>F39*4</f>
+        <v>32</v>
+      </c>
+      <c r="I41">
+        <f>G39</f>
+        <v>120</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>512</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f>F39</f>
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <f>G39*4</f>
+        <v>480</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>1928</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f>B27</f>
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <f>C27+1</f>
+        <v>31</v>
+      </c>
+      <c r="F43">
+        <f>D43+1</f>
+        <v>8</v>
+      </c>
+      <c r="G43">
+        <f>E43</f>
+        <v>31</v>
+      </c>
+      <c r="H43">
+        <f>F43+1</f>
+        <v>9</v>
+      </c>
+      <c r="I43">
+        <f>G43</f>
+        <v>31</v>
+      </c>
+      <c r="J43">
+        <f>MAX(H43:I43)*4+MIN(H43:I43)</f>
+        <v>133</v>
+      </c>
+      <c r="K43">
+        <f>H43+I43</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f>F43+G43</f>
+        <v>39</v>
+      </c>
+      <c r="H44">
+        <f>F43</f>
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <f>G43+1</f>
+        <v>32</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ref="J44:J58" si="5">MAX(H44:I44)*4+MIN(H44:I44)</f>
+        <v>136</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ref="K44:K58" si="6">H44+I44</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f>F43*4</f>
+        <v>32</v>
+      </c>
+      <c r="I45">
+        <f>G43</f>
+        <v>31</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f>F43</f>
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <f>G43*4</f>
+        <v>124</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>504</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f>D43</f>
+        <v>7</v>
+      </c>
+      <c r="G47">
+        <f>E43+1</f>
+        <v>32</v>
+      </c>
+      <c r="H47">
+        <f>F47+1</f>
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <f>G47</f>
+        <v>32</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f>F47+G47</f>
+        <v>39</v>
+      </c>
+      <c r="H48">
+        <f>F47</f>
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <f>G47+1</f>
+        <v>33</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>139</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f>F47*4</f>
+        <v>28</v>
+      </c>
+      <c r="I49">
+        <f>G47</f>
+        <v>32</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f>F47</f>
+        <v>7</v>
+      </c>
+      <c r="I50">
+        <f>G47*4</f>
+        <v>128</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>519</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f>D43*4</f>
+        <v>28</v>
+      </c>
+      <c r="G51">
+        <f>E43</f>
+        <v>31</v>
+      </c>
+      <c r="H51">
+        <f>F51+1</f>
+        <v>29</v>
+      </c>
+      <c r="I51">
+        <f>G51</f>
+        <v>31</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f>F51+G51</f>
+        <v>59</v>
+      </c>
+      <c r="H52">
+        <f>F51</f>
+        <v>28</v>
+      </c>
+      <c r="I52">
+        <f>G51+1</f>
+        <v>32</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <f>F51*4</f>
+        <v>112</v>
+      </c>
+      <c r="I53">
+        <f>G51</f>
+        <v>31</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="5"/>
+        <v>479</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="6"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f>F51</f>
+        <v>28</v>
+      </c>
+      <c r="I54">
+        <f>G51*4</f>
+        <v>124</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="5"/>
+        <v>524</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="6"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f>D43</f>
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <f>E43*4</f>
+        <v>124</v>
+      </c>
+      <c r="H55">
+        <f>F55+1</f>
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <f>G55</f>
+        <v>124</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="5"/>
+        <v>504</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f>F55+G55</f>
+        <v>131</v>
+      </c>
+      <c r="H56">
+        <f>F55</f>
+        <v>7</v>
+      </c>
+      <c r="I56">
+        <f>G55+1</f>
+        <v>125</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="5"/>
+        <v>507</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f>F55*4</f>
+        <v>28</v>
+      </c>
+      <c r="I57">
+        <f>G55</f>
+        <v>124</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="5"/>
+        <v>524</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="6"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f>F55</f>
+        <v>7</v>
+      </c>
+      <c r="I58">
+        <f>G55*4</f>
+        <v>496</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="5"/>
+        <v>1991</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="6"/>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <f>B27*4</f>
+        <v>28</v>
+      </c>
+      <c r="E59">
+        <f>C27</f>
+        <v>30</v>
+      </c>
+      <c r="F59">
+        <f>D59+1</f>
+        <v>29</v>
+      </c>
+      <c r="G59">
+        <f>E59</f>
+        <v>30</v>
+      </c>
+      <c r="H59">
+        <f>F59+1</f>
+        <v>30</v>
+      </c>
+      <c r="I59">
+        <f>G59</f>
+        <v>30</v>
+      </c>
+      <c r="J59">
+        <f>MAX(H59:I59)*4+MIN(H59:I59)</f>
+        <v>150</v>
+      </c>
+      <c r="K59">
+        <f>H59+I59</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f>F59+G59</f>
+        <v>59</v>
+      </c>
+      <c r="H60">
+        <f>F59</f>
+        <v>29</v>
+      </c>
+      <c r="I60">
+        <f>G59+1</f>
+        <v>31</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ref="J60:J74" si="7">MAX(H60:I60)*4+MIN(H60:I60)</f>
+        <v>153</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ref="K60:K74" si="8">H60+I60</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <f>F59*4</f>
+        <v>116</v>
+      </c>
+      <c r="I61">
+        <f>G59</f>
+        <v>30</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="7"/>
+        <v>494</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="8"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <f>F59</f>
+        <v>29</v>
+      </c>
+      <c r="I62">
+        <f>G59*4</f>
+        <v>120</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="7"/>
+        <v>509</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="8"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f>D59</f>
+        <v>28</v>
+      </c>
+      <c r="G63">
+        <f>E59+1</f>
+        <v>31</v>
+      </c>
+      <c r="H63">
+        <f>F63+1</f>
+        <v>29</v>
+      </c>
+      <c r="I63">
+        <f>G63</f>
+        <v>31</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="7"/>
+        <v>153</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f>F63+G63</f>
+        <v>59</v>
+      </c>
+      <c r="H64">
+        <f>F63</f>
+        <v>28</v>
+      </c>
+      <c r="I64">
+        <f>G63+1</f>
+        <v>32</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="7"/>
+        <v>156</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <f>F63*4</f>
+        <v>112</v>
+      </c>
+      <c r="I65">
+        <f>G63</f>
+        <v>31</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="7"/>
+        <v>479</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="8"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <f>F63</f>
+        <v>28</v>
+      </c>
+      <c r="I66">
+        <f>G63*4</f>
+        <v>124</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="7"/>
+        <v>524</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="8"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f>D59*4</f>
+        <v>112</v>
+      </c>
+      <c r="G67">
+        <f>E59</f>
+        <v>30</v>
+      </c>
+      <c r="H67">
+        <f>F67+1</f>
+        <v>113</v>
+      </c>
+      <c r="I67">
+        <f>G67</f>
+        <v>30</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="7"/>
+        <v>482</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="8"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f>F67+G67</f>
+        <v>142</v>
+      </c>
+      <c r="H68">
+        <f>F67</f>
+        <v>112</v>
+      </c>
+      <c r="I68">
+        <f>G67+1</f>
+        <v>31</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="7"/>
+        <v>479</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="8"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <f>F67*4</f>
+        <v>448</v>
+      </c>
+      <c r="I69">
+        <f>G67</f>
+        <v>30</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="7"/>
+        <v>1822</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="8"/>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="70" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <f>F67</f>
+        <v>112</v>
+      </c>
+      <c r="I70">
+        <f>G67*4</f>
+        <v>120</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="7"/>
+        <v>592</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="8"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f>D59</f>
+        <v>28</v>
+      </c>
+      <c r="G71">
+        <f>E59*4</f>
+        <v>120</v>
+      </c>
+      <c r="H71">
+        <f>F71+1</f>
+        <v>29</v>
+      </c>
+      <c r="I71">
+        <f>G71</f>
+        <v>120</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="7"/>
+        <v>509</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="8"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f>F71+G71</f>
+        <v>148</v>
+      </c>
+      <c r="H72">
+        <f>F71</f>
+        <v>28</v>
+      </c>
+      <c r="I72">
+        <f>G71+1</f>
+        <v>121</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="7"/>
+        <v>512</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="8"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <f>F71*4</f>
+        <v>112</v>
+      </c>
+      <c r="I73">
+        <f>G71</f>
+        <v>120</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="7"/>
+        <v>592</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="8"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <f>F71</f>
+        <v>28</v>
+      </c>
+      <c r="I74">
+        <f>G71*4</f>
+        <v>480</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="7"/>
+        <v>1948</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="8"/>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="75" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <f>B27</f>
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <f>C27*4</f>
+        <v>120</v>
+      </c>
+      <c r="F75">
+        <f>D75+1</f>
+        <v>8</v>
+      </c>
+      <c r="G75">
+        <f>E75</f>
+        <v>120</v>
+      </c>
+      <c r="H75">
+        <f>F75+1</f>
+        <v>9</v>
+      </c>
+      <c r="I75">
+        <f>G75</f>
+        <v>120</v>
+      </c>
+      <c r="J75">
+        <f>MAX(H75:I75)*4+MIN(H75:I75)</f>
+        <v>489</v>
+      </c>
+      <c r="K75">
+        <f>H75+I75</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f>F75+G75</f>
+        <v>128</v>
+      </c>
+      <c r="H76">
+        <f>F75</f>
+        <v>8</v>
+      </c>
+      <c r="I76">
+        <f>G75+1</f>
+        <v>121</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ref="J76:J90" si="9">MAX(H76:I76)*4+MIN(H76:I76)</f>
+        <v>492</v>
+      </c>
+      <c r="K76">
+        <f t="shared" ref="K76:K90" si="10">H76+I76</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <f>F75*4</f>
+        <v>32</v>
+      </c>
+      <c r="I77">
+        <f>G75</f>
+        <v>120</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="9"/>
+        <v>512</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="10"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <f>F75</f>
+        <v>8</v>
+      </c>
+      <c r="I78">
+        <f>G75*4</f>
+        <v>480</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="9"/>
+        <v>1928</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="10"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="79" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f>D75</f>
+        <v>7</v>
+      </c>
+      <c r="G79">
+        <f>E75+1</f>
+        <v>121</v>
+      </c>
+      <c r="H79">
+        <f>F79+1</f>
+        <v>8</v>
+      </c>
+      <c r="I79">
+        <f>G79</f>
+        <v>121</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="9"/>
+        <v>492</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f>F79+G79</f>
+        <v>128</v>
+      </c>
+      <c r="H80">
+        <f>F79</f>
+        <v>7</v>
+      </c>
+      <c r="I80">
+        <f>G79+1</f>
+        <v>122</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="9"/>
+        <v>495</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <f>F79*4</f>
+        <v>28</v>
+      </c>
+      <c r="I81">
+        <f>G79</f>
+        <v>121</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="9"/>
+        <v>512</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="10"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <f>F79</f>
+        <v>7</v>
+      </c>
+      <c r="I82">
+        <f>G79*4</f>
+        <v>484</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="9"/>
+        <v>1943</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="10"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="83" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f>D75*4</f>
+        <v>28</v>
+      </c>
+      <c r="G83">
+        <f>E75</f>
+        <v>120</v>
+      </c>
+      <c r="H83">
+        <f>F83+1</f>
+        <v>29</v>
+      </c>
+      <c r="I83">
+        <f>G83</f>
+        <v>120</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="9"/>
+        <v>509</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="10"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f>F83+G83</f>
+        <v>148</v>
+      </c>
+      <c r="H84">
+        <f>F83</f>
+        <v>28</v>
+      </c>
+      <c r="I84">
+        <f>G83+1</f>
+        <v>121</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="9"/>
+        <v>512</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="10"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <f>F83*4</f>
+        <v>112</v>
+      </c>
+      <c r="I85">
+        <f>G83</f>
+        <v>120</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="9"/>
+        <v>592</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="10"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <f>F83</f>
+        <v>28</v>
+      </c>
+      <c r="I86">
+        <f>G83*4</f>
+        <v>480</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="9"/>
+        <v>1948</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="10"/>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="87" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f>D75</f>
+        <v>7</v>
+      </c>
+      <c r="G87">
+        <f>E75*4</f>
+        <v>480</v>
+      </c>
+      <c r="H87">
+        <f>F87+1</f>
+        <v>8</v>
+      </c>
+      <c r="I87">
+        <f>G87</f>
+        <v>480</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="9"/>
+        <v>1928</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="10"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="88" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f>F87+G87</f>
+        <v>487</v>
+      </c>
+      <c r="H88">
+        <f>F87</f>
+        <v>7</v>
+      </c>
+      <c r="I88">
+        <f>G87+1</f>
+        <v>481</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="9"/>
+        <v>1931</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="10"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="89" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <f>F87*4</f>
+        <v>28</v>
+      </c>
+      <c r="I89">
+        <f>G87</f>
+        <v>480</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="9"/>
+        <v>1948</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="10"/>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="90" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <f>F87</f>
+        <v>7</v>
+      </c>
+      <c r="I90">
+        <f>G87*4</f>
+        <v>1920</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="9"/>
+        <v>7687</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="10"/>
+        <v>1927</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThanOrEqual">
       <formula>133</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="greaterThanOrEqual">
       <formula>133</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H23">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThanOrEqual">
+      <formula>133</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I23">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThanOrEqual">
+      <formula>133</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J42">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThanOrEqual">
+      <formula>133</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K42">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThanOrEqual">
+      <formula>133</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:J58">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
+      <formula>133</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:K58">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
+      <formula>133</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59:J74">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
+      <formula>133</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:K74">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+      <formula>133</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75:J90">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+      <formula>133</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K75:K90">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>133</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I23">
+  <conditionalFormatting sqref="F27:F88">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>133</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>